--- a/Database/Kato/USA.xlsx
+++ b/Database/Kato/USA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4B6D30-E920-47AB-AAC1-52C7FF7EBBAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE22939-81B3-4072-8D59-33D27B2B8B94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10272" yWindow="1056" windowWidth="12588" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10608" yWindow="156" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,11 +100,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,4001 +420,4116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:G178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="H180" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>43876</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>15</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
         <v>12</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>43877</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>15</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
         <v>12</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>43878</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>15</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
         <v>12</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>43879</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>15</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
         <v>12</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>43880</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>15</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
         <v>12</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>43881</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>15</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
         <v>10</v>
       </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>43882</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>35</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
         <v>29</v>
       </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>43883</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>35</v>
       </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
         <v>29</v>
       </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>43884</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>35</v>
       </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
         <v>28</v>
       </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>43885</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>53</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
         <v>48</v>
       </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>43886</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>57</v>
       </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
         <v>51</v>
       </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>43887</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>60</v>
       </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
         <v>54</v>
       </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>43888</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>13</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>60</v>
       </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
         <v>54</v>
       </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>43889</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>14</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>63</v>
       </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
         <v>57</v>
       </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>43890</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>15</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>68</v>
       </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
         <v>60</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>1</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>43891</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>16</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>75</v>
       </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
         <v>65</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>1</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>43892</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>17</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>100</v>
       </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
         <v>85</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>6</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>43893</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>18</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>124</v>
       </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
         <v>106</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>9</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>43894</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>19</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>158</v>
       </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
         <v>138</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>11</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>43895</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>20</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>221</v>
       </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
         <v>200</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>12</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>43896</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>21</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>319</v>
       </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
         <v>289</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>15</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>43897</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>22</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>435</v>
       </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
         <v>401</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>19</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>43898</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>23</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>541</v>
       </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
         <v>504</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>22</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>43899</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>24</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>704</v>
       </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
         <v>663</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>26</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>43900</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>25</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>994</v>
       </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
         <v>949</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>30</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>43901</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>26</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>1301</v>
       </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
         <v>1248</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>38</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>43902</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>27</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <v>1631</v>
       </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
         <v>1582</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <v>41</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>43903</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>28</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <v>2185</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>554</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>2128</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>48</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>43904</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>29</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>2774</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>589</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>2667</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>58</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>43905</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>30</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>3622</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>848</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>3489</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>73</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>43906</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>31</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <v>4611</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>989</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>4441</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="2">
         <v>95</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="2">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>43907</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>32</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <v>6366</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>1755</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>6138</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="2">
         <v>121</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>43908</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>33</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <v>9333</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>2967</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <v>9048</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="2">
         <v>171</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>43909</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>34</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <v>13935</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <v>4602</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <v>13584</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="2">
         <v>240</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
         <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>43910</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>35</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <v>19608</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <v>5673</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <v>19148</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="2">
         <v>310</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>43911</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>36</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <v>24498</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>4890</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <v>23948</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="2">
         <v>376</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="2">
         <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>43912</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>37</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="2">
         <v>33946</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <v>9448</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <v>33253</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="2">
         <v>512</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="2">
         <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>43913</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>38</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2">
         <v>44325</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <v>10379</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2">
         <v>43331</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="2">
         <v>693</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="2">
         <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>43914</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>39</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="2">
         <v>55579</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="2">
         <v>11254</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="2">
         <v>54220</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="2">
         <v>962</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="2">
         <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>43915</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>40</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="2">
         <v>69136</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <v>13557</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
         <v>67453</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="2">
         <v>1269</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="2">
         <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>43916</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>41</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
         <v>86668</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <v>17532</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="2">
         <v>83146</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="2">
         <v>1629</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="2">
         <v>360</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>43917</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>42</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="2">
         <v>105584</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="2">
         <v>18916</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="2">
         <v>100894</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="2">
         <v>2131</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="2">
         <v>502</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>43918</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>43</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="2">
         <v>125250</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="2">
         <v>19666</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="2">
         <v>119201</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="2">
         <v>2781</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="2">
         <v>650</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>43919</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <v>44</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="2">
         <v>145526</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="2">
         <v>20279</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="2">
         <v>137647</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="2">
         <v>3283</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="2">
         <v>502</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>43920</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <v>45</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="2">
         <v>168822</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="2">
         <v>23296</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="2">
         <v>159169</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="2">
         <v>4105</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="2">
         <v>822</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>43921</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <v>46</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="2">
         <v>194114</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="2">
         <v>25292</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="2">
         <v>181606</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="2">
         <v>5206</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="2">
         <v>1101</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>43922</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <v>47</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="2">
         <v>221229</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="2">
         <v>27115</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="2">
         <v>205829</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="2">
         <v>6465</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="2">
         <v>1259</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>43923</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="2">
         <v>48</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="2">
         <v>251802</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="2">
         <v>30573</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="2">
         <v>233639</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="2">
         <v>7677</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="2">
         <v>1212</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>43924</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="2">
         <v>49</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="2">
         <v>284775</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="2">
         <v>32973</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="2">
         <v>263433</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="2">
         <v>8961</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="2">
         <v>1284</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>43925</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <v>50</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="2">
         <v>319463</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="2">
         <v>34688</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="2">
         <v>294001</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="2">
         <v>10539</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="2">
         <v>1578</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>43926</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="2">
         <v>51</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="2">
         <v>345368</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="2">
         <v>25905</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="2">
         <v>315328</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="2">
         <v>11965</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="2">
         <v>1426</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>43927</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="2">
         <v>52</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="2">
         <v>377129</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="2">
         <v>31761</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="2">
         <v>343792</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="2">
         <v>13490</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="2">
         <v>1525</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>43928</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="2">
         <v>53</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="2">
         <v>411208</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="2">
         <v>34079</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="2">
         <v>373575</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="2">
         <v>15758</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="2">
         <v>2268</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>43929</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="2">
         <v>54</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="2">
         <v>443731</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="2">
         <v>32523</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="2">
         <v>401435</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="2">
         <v>17970</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="2">
         <v>2212</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>43930</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="2">
         <v>55</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="2">
         <v>477826</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="2">
         <v>34095</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="2">
         <v>431780</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="2">
         <v>20118</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="2">
         <v>2148</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>43931</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="2">
         <v>56</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="2">
         <v>512077</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="2">
         <v>34251</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="2">
         <v>462363</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="2">
         <v>22400</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="2">
         <v>2282</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>43932</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="2">
         <v>57</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="2">
         <v>542574</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="2">
         <v>30497</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="2">
         <v>487534</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="2">
         <v>24467</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="2">
         <v>2067</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>43933</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="2">
         <v>58</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="2">
         <v>570439</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="2">
         <v>27865</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="2">
         <v>511393</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="2">
         <v>26223</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="2">
         <v>1756</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>43934</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="2">
         <v>59</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="2">
         <v>597545</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="2">
         <v>27106</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="2">
         <v>532456</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="2">
         <v>27971</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="2">
         <v>1748</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>43935</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="2">
         <v>60</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="2">
         <v>624911</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="2">
         <v>27446</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="2">
         <v>555310</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="2">
         <v>30601</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="2">
         <v>2630</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>43936</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="2">
         <v>61</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="2">
         <v>655674</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="2">
         <v>30683</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="2">
         <v>573294</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="2">
         <v>33293</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="2">
         <v>2692</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>43937</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="2">
         <v>62</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="2">
         <v>685827</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="2">
         <v>30153</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="2">
         <v>592143</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="2">
         <v>35548</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="2">
         <v>2255</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>43938</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="2">
         <v>63</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="2">
         <v>718331</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="2">
         <v>32504</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="2">
         <v>618807</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="2">
         <v>38146</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="2">
         <v>2598</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>43939</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="2">
         <v>64</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="2">
         <v>747531</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="2">
         <v>29200</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="2">
         <v>637528</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="2">
         <v>40069</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="2">
         <v>1923</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>43940</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="2">
         <v>65</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="2">
         <v>773732</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="2">
         <v>26201</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="2">
         <v>658366</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="2">
         <v>41666</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="2">
         <v>1597</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>43941</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="2">
         <v>66</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="2">
         <v>801970</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="2">
         <v>28238</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="2">
         <v>682601</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="2">
         <v>43646</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="2">
         <v>1980</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>43942</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="2">
         <v>67</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="2">
         <v>828213</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="2">
         <v>26243</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="2">
         <v>693578</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="2">
         <v>46395</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="2">
         <v>2749</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>43943</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="2">
         <v>68</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="2">
         <v>858537</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="2">
         <v>30324</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="2">
         <v>718865</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="2">
         <v>48806</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="2">
         <v>2411</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>43944</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="2">
         <v>69</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="2">
         <v>890616</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="2">
         <v>32079</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="2">
         <v>744898</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="2">
         <v>51208</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="2">
         <v>2402</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>43945</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="2">
         <v>70</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="2">
         <v>929746</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="2">
         <v>39130</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="2">
         <v>757913</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="2">
         <v>53201</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="2">
         <v>1993</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>43946</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="2">
         <v>71</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="2">
         <v>965275</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="2">
         <v>35529</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="2">
         <v>782698</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72" s="2">
         <v>55314</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="2">
         <v>2113</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>43947</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="2">
         <v>72</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="2">
         <v>991869</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="2">
         <v>26594</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73" s="2">
         <v>806260</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73" s="2">
         <v>56486</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="2">
         <v>1172</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>43948</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="2">
         <v>73</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="2">
         <v>1015123</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="2">
         <v>23254</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" s="2">
         <v>806966</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74" s="2">
         <v>57890</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="2">
         <v>1404</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>43949</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="2">
         <v>74</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="2">
         <v>1040699</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="2">
         <v>25576</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" s="2">
         <v>825770</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="2">
         <v>60426</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="2">
         <v>2536</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>43950</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="2">
         <v>75</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="2">
         <v>1069297</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="2">
         <v>28598</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76" s="2">
         <v>845827</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76" s="2">
         <v>62873</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="2">
         <v>2447</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>43951</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="2">
         <v>76</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="2">
         <v>1100305</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="2">
         <v>31008</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77" s="2">
         <v>868674</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77" s="2">
         <v>65150</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="2">
         <v>2277</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>43952</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="2">
         <v>77</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="2">
         <v>1136474</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="2">
         <v>36169</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78" s="2">
         <v>892645</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78" s="2">
         <v>67101</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="2">
         <v>1951</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>43953</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="2">
         <v>78</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="2">
         <v>1166346</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="2">
         <v>29872</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E79" s="2">
         <v>908027</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79" s="2">
         <v>68833</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="2">
         <v>1732</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>43954</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="2">
         <v>79</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="2">
         <v>1193782</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="2">
         <v>27436</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E80" s="2">
         <v>928654</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80" s="2">
         <v>70009</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="2">
         <v>1176</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+      <c r="A81" s="1">
         <v>43955</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="2">
         <v>80</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="2">
         <v>1218549</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="2">
         <v>24767</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81" s="2">
         <v>941360</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81" s="2">
         <v>71350</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="2">
         <v>1341</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+      <c r="A82" s="1">
         <v>43956</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="2">
         <v>81</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="2">
         <v>1243461</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="2">
         <v>24912</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82" s="2">
         <v>950131</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F82" s="2">
         <v>73757</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="2">
         <v>2407</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+      <c r="A83" s="1">
         <v>43957</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="2">
         <v>82</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="2">
         <v>1269042</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="2">
         <v>25581</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E83" s="2">
         <v>959537</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F83" s="2">
         <v>76336</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="2">
         <v>2579</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
+      <c r="A84" s="1">
         <v>43958</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="2">
         <v>83</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="2">
         <v>1298691</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="2">
         <v>29649</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84" s="2">
         <v>981396</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F84" s="2">
         <v>78510</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="2">
         <v>2174</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+      <c r="A85" s="1">
         <v>43959</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="2">
         <v>84</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="2">
         <v>1327988</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="2">
         <v>29297</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85" s="2">
         <v>1000164</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F85" s="2">
         <v>80228</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="2">
         <v>1718</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+      <c r="A86" s="1">
         <v>43960</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="2">
         <v>85</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="2">
         <v>1354228</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="2">
         <v>26240</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86" s="2">
         <v>1008155</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86" s="2">
         <v>81682</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="2">
         <v>1454</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+      <c r="A87" s="1">
         <v>43961</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="2">
         <v>86</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="2">
         <v>1375050</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="2">
         <v>20822</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87" s="2">
         <v>1021744</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F87" s="2">
         <v>82899</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="2">
         <v>1217</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+      <c r="A88" s="1">
         <v>43962</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="2">
         <v>87</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="2">
         <v>1393758</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="2">
         <v>18708</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E88" s="2">
         <v>1031412</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F88" s="2">
         <v>83975</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="2">
         <v>1076</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+      <c r="A89" s="1">
         <v>43963</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="2">
         <v>88</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="2">
         <v>1416787</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="2">
         <v>23029</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E89" s="2">
         <v>1021215</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F89" s="2">
         <v>85889</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="2">
         <v>1914</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
+      <c r="A90" s="1">
         <v>43964</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="2">
         <v>89</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="2">
         <v>1439182</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="2">
         <v>22395</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E90" s="2">
         <v>1027027</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F90" s="2">
         <v>87750</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="2">
         <v>1861</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+      <c r="A91" s="1">
         <v>43965</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="2">
         <v>90</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="2">
         <v>1467281</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="2">
         <v>28099</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E91" s="2">
         <v>1044376</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F91" s="2">
         <v>89544</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="2">
         <v>1794</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
+      <c r="A92" s="1">
         <v>43966</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="2">
         <v>91</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="2">
         <v>1494909</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="2">
         <v>27628</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E92" s="2">
         <v>1059364</v>
       </c>
-      <c r="F92" s="1">
+      <c r="F92" s="2">
         <v>91185</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="2">
         <v>1641</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
+      <c r="A93" s="1">
         <v>43967</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="2">
         <v>92</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="2">
         <v>1519245</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="2">
         <v>24336</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E93" s="2">
         <v>1069860</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F93" s="2">
         <v>92427</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="2">
         <v>1242</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
+      <c r="A94" s="1">
         <v>43968</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="2">
         <v>93</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="2">
         <v>1539452</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="2">
         <v>20207</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E94" s="2">
         <v>1081455</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F94" s="2">
         <v>93311</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="2">
         <v>884</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
+      <c r="A95" s="1">
         <v>43969</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="2">
         <v>94</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="2">
         <v>1563000</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="2">
         <v>23548</v>
       </c>
-      <c r="E95" s="1">
+      <c r="E95" s="2">
         <v>1093463</v>
       </c>
-      <c r="F95" s="1">
+      <c r="F95" s="2">
         <v>94330</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="2">
         <v>1019</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
+      <c r="A96" s="1">
         <v>43970</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="2">
         <v>95</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="2">
         <v>1583804</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="2">
         <v>20804</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96" s="2">
         <v>1104970</v>
       </c>
-      <c r="F96" s="1">
+      <c r="F96" s="2">
         <v>95914</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="2">
         <v>1584</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
+      <c r="A97" s="1">
         <v>43971</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="2">
         <v>96</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="2">
         <v>1606480</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="2">
         <v>22676</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E97" s="2">
         <v>1116219</v>
       </c>
-      <c r="F97" s="1">
+      <c r="F97" s="2">
         <v>97348</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="2">
         <v>1434</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
+      <c r="A98" s="1">
         <v>43972</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="2">
         <v>97</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="2">
         <v>1635325</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="2">
         <v>28845</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E98" s="2">
         <v>1128924</v>
       </c>
-      <c r="F98" s="1">
+      <c r="F98" s="2">
         <v>98786</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="2">
         <v>1438</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
+      <c r="A99" s="1">
         <v>43973</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="2">
         <v>98</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="2">
         <v>1659995</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="2">
         <v>24670</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E99" s="2">
         <v>1100901</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F99" s="2">
         <v>100110</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="2">
         <v>1324</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
+      <c r="A100" s="1">
         <v>43974</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="2">
         <v>99</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="2">
         <v>1681937</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="2">
         <v>21942</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E100" s="2">
         <v>1107032</v>
       </c>
-      <c r="F100" s="1">
+      <c r="F100" s="2">
         <v>101165</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="2">
         <v>1055</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
+      <c r="A101" s="1">
         <v>43975</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="2">
         <v>100</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="2">
         <v>1701871</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="2">
         <v>19934</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E101" s="2">
         <v>1119279</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F101" s="2">
         <v>101792</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="2">
         <v>627</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
+      <c r="A102" s="1">
         <v>43976</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="2">
         <v>101</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="2">
         <v>1721795</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102" s="2">
         <v>19924</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E102" s="2">
         <v>1123535</v>
       </c>
-      <c r="F102" s="1">
+      <c r="F102" s="2">
         <v>102429</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="2">
         <v>637</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
+      <c r="A103" s="1">
         <v>43977</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="2">
         <v>102</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="2">
         <v>1741199</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103" s="2">
         <v>19404</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E103" s="2">
         <v>1124096</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F103" s="2">
         <v>103215</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="2">
         <v>786</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
+      <c r="A104" s="1">
         <v>43978</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="2">
         <v>103</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="2">
         <v>1761953</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104" s="2">
         <v>20754</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E104" s="2">
         <v>1130541</v>
       </c>
-      <c r="F104" s="1">
+      <c r="F104" s="2">
         <v>104782</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="2">
         <v>1567</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
+      <c r="A105" s="1">
         <v>43979</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="2">
         <v>104</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="2">
         <v>1785039</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105" s="2">
         <v>23086</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E105" s="2">
         <v>1140584</v>
       </c>
-      <c r="F105" s="1">
+      <c r="F105" s="2">
         <v>106023</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="2">
         <v>1241</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
+      <c r="A106" s="1">
         <v>43980</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="2">
         <v>105</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="2">
         <v>1810737</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106" s="2">
         <v>25698</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E106" s="2">
         <v>1154682</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F106" s="2">
         <v>107259</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="2">
         <v>1236</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
+      <c r="A107" s="1">
         <v>43981</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="2">
         <v>106</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="2">
         <v>1834498</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="2">
         <v>23777</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E107" s="2">
         <v>1160608</v>
       </c>
-      <c r="F107" s="1">
+      <c r="F107" s="2">
         <v>108295</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="2">
         <v>1036</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
+      <c r="A108" s="1">
         <v>43982</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="2">
         <v>107</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="2">
         <v>1855255</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108" s="2">
         <v>20764</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E108" s="2">
         <v>1114676</v>
       </c>
-      <c r="F108" s="1">
+      <c r="F108" s="2">
         <v>108947</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="2">
         <v>652</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
+      <c r="A109" s="1">
         <v>43983</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="2">
         <v>108</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="2">
         <v>1877691</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D109" s="2">
         <v>22445</v>
       </c>
-      <c r="E109" s="1">
+      <c r="E109" s="2">
         <v>1119781</v>
       </c>
-      <c r="F109" s="1">
+      <c r="F109" s="2">
         <v>109644</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="2">
         <v>697</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
+      <c r="A110" s="1">
         <v>43984</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="2">
         <v>109</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="2">
         <v>1899979</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110" s="2">
         <v>22297</v>
       </c>
-      <c r="E110" s="1">
+      <c r="E110" s="2">
         <v>1109524</v>
       </c>
-      <c r="F110" s="1">
+      <c r="F110" s="2">
         <v>110795</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="2">
         <v>1151</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
+      <c r="A111" s="1">
         <v>43985</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="2">
         <v>110</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="2">
         <v>1920811</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111" s="2">
         <v>20840</v>
       </c>
-      <c r="E111" s="1">
+      <c r="E111" s="2">
         <v>1086865</v>
       </c>
-      <c r="F111" s="1">
+      <c r="F111" s="2">
         <v>111902</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="2">
         <v>1107</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
+      <c r="A112" s="1">
         <v>43986</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="2">
         <v>111</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="2">
         <v>1943660</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112" s="2">
         <v>22858</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E112" s="2">
         <v>1083991</v>
       </c>
-      <c r="F112" s="1">
+      <c r="F112" s="2">
         <v>112956</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="2">
         <v>1054</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
+      <c r="A113" s="1">
         <v>43987</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="2">
         <v>112</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" s="2">
         <v>1969087</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113" s="2">
         <v>25437</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E113" s="2">
         <v>1092988</v>
       </c>
-      <c r="F113" s="1">
+      <c r="F113" s="2">
         <v>113946</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="2">
         <v>990</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
+      <c r="A114" s="1">
         <v>43988</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="2">
         <v>113</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114" s="2">
         <v>1991952</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D114" s="2">
         <v>22875</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E114" s="2">
         <v>1102034</v>
       </c>
-      <c r="F114" s="1">
+      <c r="F114" s="2">
         <v>114665</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="2">
         <v>719</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
+      <c r="A115" s="1">
         <v>43989</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="2">
         <v>114</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" s="2">
         <v>2010884</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115" s="2">
         <v>18939</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E115" s="2">
         <v>1110225</v>
       </c>
-      <c r="F115" s="1">
+      <c r="F115" s="2">
         <v>115050</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="2">
         <v>385</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
+      <c r="A116" s="1">
         <v>43990</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="2">
         <v>115</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116" s="2">
         <v>2029954</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116" s="2">
         <v>19075</v>
       </c>
-      <c r="E116" s="1">
+      <c r="E116" s="2">
         <v>1116449</v>
       </c>
-      <c r="F116" s="1">
+      <c r="F116" s="2">
         <v>115650</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="2">
         <v>600</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
+      <c r="A117" s="1">
         <v>43991</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="2">
         <v>116</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117" s="2">
         <v>2049037</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117" s="2">
         <v>19095</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E117" s="2">
         <v>1118627</v>
       </c>
-      <c r="F117" s="1">
+      <c r="F117" s="2">
         <v>116757</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="2">
         <v>1107</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
+      <c r="A118" s="1">
         <v>43992</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="2">
         <v>117</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118" s="2">
         <v>2070076</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D118" s="2">
         <v>21048</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E118" s="2">
         <v>1118058</v>
       </c>
-      <c r="F118" s="1">
+      <c r="F118" s="2">
         <v>117758</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="2">
         <v>1001</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
+      <c r="A119" s="1">
         <v>43993</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="2">
         <v>118</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119" s="2">
         <v>2093564</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119" s="2">
         <v>23497</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E119" s="2">
         <v>1132712</v>
       </c>
-      <c r="F119" s="1">
+      <c r="F119" s="2">
         <v>118677</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="2">
         <v>919</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
+      <c r="A120" s="1">
         <v>43994</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120" s="2">
         <v>119</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120" s="2">
         <v>2120968</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D120" s="2">
         <v>27415</v>
       </c>
-      <c r="E120" s="1">
+      <c r="E120" s="2">
         <v>1132997</v>
       </c>
-      <c r="F120" s="1">
+      <c r="F120" s="2">
         <v>119480</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="2">
         <v>803</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
+      <c r="A121" s="1">
         <v>43995</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121" s="2">
         <v>120</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121" s="2">
         <v>2146458</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D121" s="2">
         <v>25517</v>
       </c>
-      <c r="E121" s="1">
+      <c r="E121" s="2">
         <v>1145013</v>
       </c>
-      <c r="F121" s="1">
+      <c r="F121" s="2">
         <v>120197</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="2">
         <v>717</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
+      <c r="A122" s="1">
         <v>43996</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122" s="2">
         <v>121</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122" s="2">
         <v>2166638</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D122" s="2">
         <v>20187</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E122" s="2">
         <v>1154014</v>
       </c>
-      <c r="F122" s="1">
+      <c r="F122" s="2">
         <v>120534</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="2">
         <v>337</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="2">
+      <c r="A123" s="1">
         <v>43997</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123" s="2">
         <v>122</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123" s="2">
         <v>2187539</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D123" s="2">
         <v>20913</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E123" s="2">
         <v>1154362</v>
       </c>
-      <c r="F123" s="1">
+      <c r="F123" s="2">
         <v>120968</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="2">
         <v>434</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="2">
+      <c r="A124" s="1">
         <v>43998</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124" s="2">
         <v>123</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124" s="2">
         <v>2213167</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D124" s="2">
         <v>25639</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E124" s="2">
         <v>1165528</v>
       </c>
-      <c r="F124" s="1">
+      <c r="F124" s="2">
         <v>121832</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="2">
         <v>864</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
+      <c r="A125" s="1">
         <v>43999</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125" s="2">
         <v>124</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125" s="2">
         <v>2239421</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D125" s="2">
         <v>26152</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E125" s="2">
         <v>1174585</v>
       </c>
-      <c r="F125" s="1">
+      <c r="F125" s="2">
         <v>122656</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="2">
         <v>824</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="2">
+      <c r="A126" s="1">
         <v>44000</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126" s="2">
         <v>125</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126" s="2">
         <v>2267380</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D126" s="2">
         <v>28081</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E126" s="2">
         <v>1190400</v>
       </c>
-      <c r="F126" s="1">
+      <c r="F126" s="2">
         <v>123417</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="2">
         <v>761</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
+      <c r="A127" s="1">
         <v>44001</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127" s="2">
         <v>126</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C127" s="2">
         <v>2300956</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D127" s="2">
         <v>33695</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E127" s="2">
         <v>1198031</v>
       </c>
-      <c r="F127" s="1">
+      <c r="F127" s="2">
         <v>124150</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="2">
         <v>733</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" s="2">
+      <c r="A128" s="1">
         <v>44002</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128" s="2">
         <v>127</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128" s="2">
         <v>2334382</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D128" s="2">
         <v>33330</v>
       </c>
-      <c r="E128" s="1">
+      <c r="E128" s="2">
         <v>1213514</v>
       </c>
-      <c r="F128" s="1">
+      <c r="F128" s="2">
         <v>124734</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="2">
         <v>584</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="2">
+      <c r="A129" s="1">
         <v>44003</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129" s="2">
         <v>128</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129" s="2">
         <v>2360492</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D129" s="2">
         <v>26117</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E129" s="2">
         <v>1231855</v>
       </c>
-      <c r="F129" s="1">
+      <c r="F129" s="2">
         <v>125005</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="2">
         <v>271</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="2">
+      <c r="A130" s="1">
         <v>44004</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130" s="2">
         <v>129</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130" s="2">
         <v>2392026</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D130" s="2">
         <v>31538</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E130" s="2">
         <v>1240396</v>
       </c>
-      <c r="F130" s="1">
+      <c r="F130" s="2">
         <v>125377</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="2">
         <v>372</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="2">
+      <c r="A131" s="1">
         <v>44005</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131" s="2">
         <v>130</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131" s="2">
         <v>2428088</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D131" s="2">
         <v>36093</v>
       </c>
-      <c r="E131" s="1">
+      <c r="E131" s="2">
         <v>1258057</v>
       </c>
-      <c r="F131" s="1">
+      <c r="F131" s="2">
         <v>126253</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="2">
         <v>876</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="2">
+      <c r="A132" s="1">
         <v>44006</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132" s="2">
         <v>131</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132" s="2">
         <v>2466517</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D132" s="2">
         <v>38447</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E132" s="2">
         <v>1275193</v>
       </c>
-      <c r="F132" s="1">
+      <c r="F132" s="2">
         <v>127078</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="2">
         <v>825</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" s="2">
+      <c r="A133" s="1">
         <v>44007</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133" s="2">
         <v>132</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133" s="2">
         <v>2506744</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D133" s="2">
         <v>40247</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E133" s="2">
         <v>1303055</v>
       </c>
-      <c r="F133" s="1">
+      <c r="F133" s="2">
         <v>127737</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="2">
         <v>659</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="2">
+      <c r="A134" s="1">
         <v>44008</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134" s="2">
         <v>133</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134" s="2">
         <v>2554104</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D134" s="2">
         <v>47388</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E134" s="2">
         <v>1333571</v>
       </c>
-      <c r="F134" s="1">
+      <c r="F134" s="2">
         <v>128405</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="2">
         <v>668</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="2">
+      <c r="A135" s="1">
         <v>44009</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135" s="2">
         <v>134</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135" s="2">
         <v>2597692</v>
       </c>
-      <c r="D135" s="1">
+      <c r="D135" s="2">
         <v>43588</v>
       </c>
-      <c r="E135" s="1">
+      <c r="E135" s="2">
         <v>1363896</v>
       </c>
-      <c r="F135" s="1">
+      <c r="F135" s="2">
         <v>128923</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="2">
         <v>518</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="2">
+      <c r="A136" s="1">
         <v>44010</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136" s="2">
         <v>135</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136" s="2">
         <v>2638249</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D136" s="2">
         <v>40588</v>
       </c>
-      <c r="E136" s="1">
+      <c r="E136" s="2">
         <v>1392249</v>
       </c>
-      <c r="F136" s="1">
+      <c r="F136" s="2">
         <v>129210</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="2">
         <v>287</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="2">
+      <c r="A137" s="1">
         <v>44011</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137" s="2">
         <v>136</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C137" s="2">
         <v>2683004</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D137" s="2">
         <v>44773</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E137" s="2">
         <v>1412788</v>
       </c>
-      <c r="F137" s="1">
+      <c r="F137" s="2">
         <v>129580</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="2">
         <v>370</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" s="2">
+      <c r="A138" s="1">
         <v>44012</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138" s="2">
         <v>137</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C138" s="2">
         <v>2729060</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D138" s="2">
         <v>46078</v>
       </c>
-      <c r="E138" s="1">
+      <c r="E138" s="2">
         <v>1432183</v>
       </c>
-      <c r="F138" s="1">
+      <c r="F138" s="2">
         <v>130313</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="2">
         <v>733</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" s="2">
+      <c r="A139" s="1">
         <v>44013</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139" s="2">
         <v>138</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C139" s="2">
         <v>2781414</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D139" s="2">
         <v>52397</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E139" s="2">
         <v>1462973</v>
       </c>
-      <c r="F139" s="1">
+      <c r="F139" s="2">
         <v>130996</v>
       </c>
-      <c r="G139">
+      <c r="G139" s="2">
         <v>683</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" s="2">
+      <c r="A140" s="1">
         <v>44014</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140" s="2">
         <v>139</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140" s="2">
         <v>2838930</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D140" s="2">
         <v>57545</v>
       </c>
-      <c r="E140" s="1">
+      <c r="E140" s="2">
         <v>1493657</v>
       </c>
-      <c r="F140" s="1">
+      <c r="F140" s="2">
         <v>131689</v>
       </c>
-      <c r="G140">
+      <c r="G140" s="2">
         <v>693</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141" s="2">
+      <c r="A141" s="1">
         <v>44015</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141" s="2">
         <v>140</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141" s="2">
         <v>2898529</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D141" s="2">
         <v>59636</v>
       </c>
-      <c r="E141" s="1">
+      <c r="E141" s="2">
         <v>1531240</v>
       </c>
-      <c r="F141" s="1">
+      <c r="F141" s="2">
         <v>132320</v>
       </c>
-      <c r="G141">
+      <c r="G141" s="2">
         <v>631</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="2">
+      <c r="A142" s="1">
         <v>44016</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142" s="2">
         <v>141</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142" s="2">
         <v>2948523</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D142" s="2">
         <v>49994</v>
       </c>
-      <c r="E142" s="1">
+      <c r="E142" s="2">
         <v>1556047</v>
       </c>
-      <c r="F142" s="1">
+      <c r="F142" s="2">
         <v>132590</v>
       </c>
-      <c r="G142">
+      <c r="G142" s="2">
         <v>270</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" s="2">
+      <c r="A143" s="1">
         <v>44017</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="2">
         <v>142</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C143" s="2">
         <v>2994556</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D143" s="2">
         <v>46074</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E143" s="2">
         <v>1572694</v>
       </c>
-      <c r="F143" s="1">
+      <c r="F143" s="2">
         <v>132858</v>
       </c>
-      <c r="G143">
+      <c r="G143" s="2">
         <v>268</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" s="2">
+      <c r="A144" s="1">
         <v>44018</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144" s="2">
         <v>143</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144" s="2">
         <v>3045322</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D144" s="2">
         <v>50789</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E144" s="2">
         <v>1588445</v>
       </c>
-      <c r="F144" s="1">
+      <c r="F144" s="2">
         <v>133245</v>
       </c>
-      <c r="G144">
+      <c r="G144" s="2">
         <v>387</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" s="2">
+      <c r="A145" s="1">
         <v>44019</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145" s="2">
         <v>144</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145" s="2">
         <v>3101166</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D145" s="2">
         <v>55885</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E145" s="2">
         <v>1612677</v>
       </c>
-      <c r="F145" s="1">
+      <c r="F145" s="2">
         <v>134250</v>
       </c>
-      <c r="G145">
+      <c r="G145" s="2">
         <v>1005</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146" s="2">
+      <c r="A146" s="1">
         <v>44020</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146" s="2">
         <v>145</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C146" s="2">
         <v>3163451</v>
       </c>
-      <c r="D146" s="1">
+      <c r="D146" s="2">
         <v>62325</v>
       </c>
-      <c r="E146" s="1">
+      <c r="E146" s="2">
         <v>1636279</v>
       </c>
-      <c r="F146" s="1">
+      <c r="F146" s="2">
         <v>135157</v>
       </c>
-      <c r="G146">
+      <c r="G146" s="2">
         <v>907</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147" s="2">
+      <c r="A147" s="1">
         <v>44021</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147" s="2">
         <v>146</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C147" s="2">
         <v>3225011</v>
       </c>
-      <c r="D147" s="1">
+      <c r="D147" s="2">
         <v>61599</v>
       </c>
-      <c r="E147" s="1">
+      <c r="E147" s="2">
         <v>1663154</v>
       </c>
-      <c r="F147" s="1">
+      <c r="F147" s="2">
         <v>136132</v>
       </c>
-      <c r="G147">
+      <c r="G147" s="2">
         <v>975</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="2">
+      <c r="A148" s="1">
         <v>44022</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148" s="2">
         <v>147</v>
       </c>
-      <c r="C148" s="1">
+      <c r="C148" s="2">
         <v>3297275</v>
       </c>
-      <c r="D148" s="1">
+      <c r="D148" s="2">
         <v>72320</v>
       </c>
-      <c r="E148" s="1">
+      <c r="E148" s="2">
         <v>1700545</v>
       </c>
-      <c r="F148" s="1">
+      <c r="F148" s="2">
         <v>136994</v>
       </c>
-      <c r="G148">
+      <c r="G148" s="2">
         <v>862</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="2">
+      <c r="A149" s="1">
         <v>44023</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149" s="2">
         <v>148</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C149" s="2">
         <v>3359271</v>
       </c>
-      <c r="D149" s="1">
+      <c r="D149" s="2">
         <v>62042</v>
       </c>
-      <c r="E149" s="1">
+      <c r="E149" s="2">
         <v>1732919</v>
       </c>
-      <c r="F149" s="1">
+      <c r="F149" s="2">
         <v>137737</v>
       </c>
-      <c r="G149">
+      <c r="G149" s="2">
         <v>743</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" s="2">
+      <c r="A150" s="1">
         <v>44024</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150" s="2">
         <v>149</v>
       </c>
-      <c r="C150" s="1">
+      <c r="C150" s="2">
         <v>3417884</v>
       </c>
-      <c r="D150" s="1">
+      <c r="D150" s="2">
         <v>58641</v>
       </c>
-      <c r="E150" s="1">
+      <c r="E150" s="2">
         <v>1763510</v>
       </c>
-      <c r="F150" s="1">
+      <c r="F150" s="2">
         <v>138123</v>
       </c>
-      <c r="G150">
+      <c r="G150" s="2">
         <v>386</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" s="2">
+      <c r="A151" s="1">
         <v>44025</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151" s="2">
         <v>150</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C151" s="2">
         <v>3483664</v>
       </c>
-      <c r="D151" s="1">
+      <c r="D151" s="2">
         <v>65816</v>
       </c>
-      <c r="E151" s="1">
+      <c r="E151" s="2">
         <v>1796465</v>
       </c>
-      <c r="F151" s="1">
+      <c r="F151" s="2">
         <v>138599</v>
       </c>
-      <c r="G151">
+      <c r="G151" s="2">
         <v>476</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" s="2">
+      <c r="A152" s="1">
         <v>44026</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152" s="2">
         <v>151</v>
       </c>
-      <c r="C152" s="1">
+      <c r="C152" s="2">
         <v>3549630</v>
       </c>
-      <c r="D152" s="1">
+      <c r="D152" s="2">
         <v>66013</v>
       </c>
-      <c r="E152" s="1">
+      <c r="E152" s="2">
         <v>1810800</v>
       </c>
-      <c r="F152" s="1">
+      <c r="F152" s="2">
         <v>139551</v>
       </c>
-      <c r="G152">
+      <c r="G152" s="2">
         <v>952</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="2">
+      <c r="A153" s="1">
         <v>44027</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B153" s="2">
         <v>152</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C153" s="2">
         <v>3621624</v>
       </c>
-      <c r="D153" s="1">
+      <c r="D153" s="2">
         <v>72038</v>
       </c>
-      <c r="E153" s="1">
+      <c r="E153" s="2">
         <v>1836050</v>
       </c>
-      <c r="F153" s="1">
+      <c r="F153" s="2">
         <v>140572</v>
       </c>
-      <c r="G153">
+      <c r="G153" s="2">
         <v>1021</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" s="2">
+      <c r="A154" s="1">
         <v>44028</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154" s="2">
         <v>153</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C154" s="2">
         <v>3695002</v>
       </c>
-      <c r="D154" s="1">
+      <c r="D154" s="2">
         <v>73427</v>
       </c>
-      <c r="E154" s="1">
+      <c r="E154" s="2">
         <v>1874827</v>
       </c>
-      <c r="F154" s="1">
+      <c r="F154" s="2">
         <v>141551</v>
       </c>
-      <c r="G154">
+      <c r="G154" s="2">
         <v>979</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="2">
+      <c r="A155" s="1">
         <v>44029</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155" s="2">
         <v>154</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C155" s="2">
         <v>3769982</v>
       </c>
-      <c r="D155" s="1">
+      <c r="D155" s="2">
         <v>75026</v>
       </c>
-      <c r="E155" s="1">
+      <c r="E155" s="2">
         <v>1887786</v>
       </c>
-      <c r="F155" s="1">
+      <c r="F155" s="2">
         <v>142517</v>
       </c>
-      <c r="G155">
+      <c r="G155" s="2">
         <v>966</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156" s="2">
+      <c r="A156" s="1">
         <v>44030</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B156" s="2">
         <v>155</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C156" s="2">
         <v>3833224</v>
       </c>
-      <c r="D156" s="1">
+      <c r="D156" s="2">
         <v>63242</v>
       </c>
-      <c r="E156" s="1">
+      <c r="E156" s="2">
         <v>1916146</v>
       </c>
-      <c r="F156" s="1">
+      <c r="F156" s="2">
         <v>143340</v>
       </c>
-      <c r="G156">
+      <c r="G156" s="2">
         <v>823</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" s="2">
+      <c r="A157" s="1">
         <v>44031</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B157" s="2">
         <v>156</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C157" s="2">
         <v>3898470</v>
       </c>
-      <c r="D157" s="1">
+      <c r="D157" s="2">
         <v>65312</v>
       </c>
-      <c r="E157" s="1">
+      <c r="E157" s="2">
         <v>1953754</v>
       </c>
-      <c r="F157" s="1">
+      <c r="F157" s="2">
         <v>143760</v>
       </c>
-      <c r="G157">
+      <c r="G157" s="2">
         <v>420</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" s="2">
+      <c r="A158" s="1">
         <v>44032</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B158" s="2">
         <v>157</v>
       </c>
-      <c r="C158" s="1">
+      <c r="C158" s="2">
         <v>3961342</v>
       </c>
-      <c r="D158" s="1">
+      <c r="D158" s="2">
         <v>62940</v>
       </c>
-      <c r="E158" s="1">
+      <c r="E158" s="2">
         <v>1968243</v>
       </c>
-      <c r="F158" s="1">
+      <c r="F158" s="2">
         <v>144299</v>
       </c>
-      <c r="G158">
+      <c r="G158" s="2">
         <v>539</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A159" s="2">
+      <c r="A159" s="1">
         <v>44033</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B159" s="2">
         <v>158</v>
       </c>
-      <c r="C159" s="1">
+      <c r="C159" s="2">
         <v>4028813</v>
       </c>
-      <c r="D159" s="1">
+      <c r="D159" s="2">
         <v>67507</v>
       </c>
-      <c r="E159" s="1">
+      <c r="E159" s="2">
         <v>1997764</v>
       </c>
-      <c r="F159" s="1">
+      <c r="F159" s="2">
         <v>145484</v>
       </c>
-      <c r="G159">
+      <c r="G159" s="2">
         <v>1185</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A160" s="2">
+      <c r="A160" s="1">
         <v>44034</v>
       </c>
-      <c r="B160" s="1">
+      <c r="B160" s="2">
         <v>159</v>
       </c>
-      <c r="C160" s="1">
+      <c r="C160" s="2">
         <v>4100754</v>
       </c>
-      <c r="D160" s="1">
+      <c r="D160" s="2">
         <v>72000</v>
       </c>
-      <c r="E160" s="1">
+      <c r="E160" s="2">
         <v>2012687</v>
       </c>
-      <c r="F160" s="1">
+      <c r="F160" s="2">
         <v>146714</v>
       </c>
-      <c r="G160">
+      <c r="G160" s="2">
         <v>1230</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" s="2">
+      <c r="A161" s="1">
         <v>44035</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B161" s="2">
         <v>160</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C161" s="2">
         <v>4170625</v>
       </c>
-      <c r="D161" s="1">
+      <c r="D161" s="2">
         <v>69920</v>
       </c>
-      <c r="E161" s="1">
+      <c r="E161" s="2">
         <v>2044435</v>
       </c>
-      <c r="F161" s="1">
+      <c r="F161" s="2">
         <v>147906</v>
       </c>
-      <c r="G161">
+      <c r="G161" s="2">
         <v>1192</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" s="2">
+      <c r="A162" s="1">
         <v>44036</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B162" s="2">
         <v>161</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C162" s="2">
         <v>4249027</v>
       </c>
-      <c r="D162" s="1">
+      <c r="D162" s="2">
         <v>78446</v>
       </c>
-      <c r="E162" s="1">
+      <c r="E162" s="2">
         <v>2073444</v>
       </c>
-      <c r="F162" s="1">
+      <c r="F162" s="2">
         <v>149068</v>
       </c>
-      <c r="G162">
+      <c r="G162" s="2">
         <v>1162</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="2">
+      <c r="A163" s="1">
         <v>44037</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B163" s="2">
         <v>162</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C163" s="2">
         <v>4317231</v>
       </c>
-      <c r="D163" s="1">
+      <c r="D163" s="2">
         <v>68204</v>
       </c>
-      <c r="E163" s="1">
+      <c r="E163" s="2">
         <v>2106922</v>
       </c>
-      <c r="F163" s="1">
+      <c r="F163" s="2">
         <v>149994</v>
       </c>
-      <c r="G163">
+      <c r="G163" s="2">
         <v>926</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="2">
+      <c r="A164" s="1">
         <v>44038</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B164" s="2">
         <v>163</v>
       </c>
-      <c r="C164" s="1">
+      <c r="C164" s="2">
         <v>4373730</v>
       </c>
-      <c r="D164" s="1">
+      <c r="D164" s="2">
         <v>56581</v>
       </c>
-      <c r="E164" s="1">
+      <c r="E164" s="2">
         <v>2134604</v>
       </c>
-      <c r="F164" s="1">
+      <c r="F164" s="2">
         <v>150456</v>
       </c>
-      <c r="G164">
+      <c r="G164" s="2">
         <v>462</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="2">
+      <c r="A165" s="1">
         <v>44039</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B165" s="2">
         <v>164</v>
       </c>
-      <c r="C165" s="1">
+      <c r="C165" s="2">
         <v>4435500</v>
       </c>
-      <c r="D165" s="1">
+      <c r="D165" s="2">
         <v>61820</v>
       </c>
-      <c r="E165" s="1">
+      <c r="E165" s="2">
         <v>2149229</v>
       </c>
-      <c r="F165" s="1">
+      <c r="F165" s="2">
         <v>151053</v>
       </c>
-      <c r="G165">
+      <c r="G165" s="2">
         <v>597</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="2">
+      <c r="A166" s="1">
         <v>44040</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B166" s="2">
         <v>165</v>
       </c>
-      <c r="C166" s="1">
+      <c r="C166" s="2">
         <v>4500545</v>
       </c>
-      <c r="D166" s="1">
+      <c r="D166" s="2">
         <v>65069</v>
       </c>
-      <c r="E166" s="1">
+      <c r="E166" s="2">
         <v>2163512</v>
       </c>
-      <c r="F166" s="1">
+      <c r="F166" s="2">
         <v>152383</v>
       </c>
-      <c r="G166">
+      <c r="G166" s="2">
         <v>1330</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" s="2">
+      <c r="A167" s="1">
         <v>44041</v>
       </c>
-      <c r="B167" s="1">
+      <c r="B167" s="2">
         <v>166</v>
       </c>
-      <c r="C167" s="1">
+      <c r="C167" s="2">
         <v>4565831</v>
       </c>
-      <c r="D167" s="1">
+      <c r="D167" s="2">
         <v>65323</v>
       </c>
-      <c r="E167" s="1">
+      <c r="E167" s="2">
         <v>2168509</v>
       </c>
-      <c r="F167" s="1">
+      <c r="F167" s="2">
         <v>153848</v>
       </c>
-      <c r="G167">
+      <c r="G167" s="2">
         <v>1465</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" s="2">
+      <c r="A168" s="1">
         <v>44042</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B168" s="2">
         <v>167</v>
       </c>
-      <c r="C168" s="1">
+      <c r="C168" s="2">
         <v>4634380</v>
       </c>
-      <c r="D168" s="1">
+      <c r="D168" s="2">
         <v>68585</v>
       </c>
-      <c r="E168" s="1">
+      <c r="E168" s="2">
         <v>2195708</v>
       </c>
-      <c r="F168" s="1">
+      <c r="F168" s="2">
         <v>155313</v>
       </c>
-      <c r="G168">
+      <c r="G168" s="2">
         <v>1465</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A169" s="2">
+      <c r="A169" s="1">
         <v>44043</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B169" s="2">
         <v>168</v>
       </c>
-      <c r="C169" s="1">
+      <c r="C169" s="2">
         <v>4705455</v>
       </c>
-      <c r="D169" s="1">
+      <c r="D169" s="2">
         <v>71113</v>
       </c>
-      <c r="E169" s="1">
+      <c r="E169" s="2">
         <v>2222756</v>
       </c>
-      <c r="F169" s="1">
+      <c r="F169" s="2">
         <v>156771</v>
       </c>
-      <c r="G169">
+      <c r="G169" s="2">
         <v>1458</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="2">
+      <c r="A170" s="1">
         <v>44044</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B170" s="2">
         <v>169</v>
       </c>
-      <c r="C170" s="1">
+      <c r="C170" s="2">
         <v>4763990</v>
       </c>
-      <c r="D170" s="1">
+      <c r="D170" s="2">
         <v>58535</v>
       </c>
-      <c r="E170" s="1">
+      <c r="E170" s="2">
         <v>2244837</v>
       </c>
-      <c r="F170" s="1">
+      <c r="F170" s="2">
         <v>157894</v>
       </c>
-      <c r="G170">
+      <c r="G170" s="2">
         <v>1123</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" s="2">
+      <c r="A171" s="1">
         <v>44045</v>
       </c>
-      <c r="B171" s="1">
+      <c r="B171" s="2">
         <v>170</v>
       </c>
-      <c r="C171" s="1">
+      <c r="C171" s="2">
         <v>4813552</v>
       </c>
-      <c r="D171" s="1">
+      <c r="D171" s="2">
         <v>49636</v>
       </c>
-      <c r="E171" s="1">
+      <c r="E171" s="2">
         <v>2276692</v>
       </c>
-      <c r="F171" s="1">
+      <c r="F171" s="2">
         <v>158361</v>
       </c>
-      <c r="G171">
+      <c r="G171" s="2">
         <v>467</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" s="2">
+      <c r="A172" s="1">
         <v>44046</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B172" s="2">
         <v>171</v>
       </c>
-      <c r="C172" s="1">
+      <c r="C172" s="2">
         <v>4862174</v>
       </c>
-      <c r="D172" s="1">
+      <c r="D172" s="2">
         <v>48646</v>
       </c>
-      <c r="E172" s="1">
+      <c r="E172" s="2">
         <v>2258190</v>
       </c>
-      <c r="F172" s="1">
+      <c r="F172" s="2">
         <v>158928</v>
       </c>
-      <c r="G172">
+      <c r="G172" s="2">
         <v>567</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A173" s="2">
+      <c r="A173" s="1">
         <v>44047</v>
       </c>
-      <c r="B173" s="1">
+      <c r="B173" s="2">
         <v>172</v>
       </c>
-      <c r="C173" s="1">
+      <c r="C173" s="2">
         <v>4918420</v>
       </c>
-      <c r="D173" s="1">
+      <c r="D173" s="2">
         <v>54504</v>
       </c>
-      <c r="E173" s="1">
+      <c r="E173" s="2">
         <v>2276450</v>
       </c>
-      <c r="F173" s="1">
+      <c r="F173" s="2">
         <v>160290</v>
       </c>
-      <c r="G173">
+      <c r="G173" s="2">
         <v>1362</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B174" s="2">
+        <v>173</v>
+      </c>
+      <c r="C174" s="2">
+        <v>4976568</v>
+      </c>
+      <c r="D174" s="2">
+        <v>55148</v>
+      </c>
+      <c r="E174" s="2">
+        <v>2271830</v>
+      </c>
+      <c r="F174" s="2">
+        <v>161601</v>
+      </c>
+      <c r="G174" s="2">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B175" s="2">
+        <v>174</v>
+      </c>
+      <c r="C175" s="2">
+        <v>5032278</v>
+      </c>
+      <c r="D175" s="2">
+        <v>58710</v>
+      </c>
+      <c r="E175" s="2">
+        <v>2292806</v>
+      </c>
+      <c r="F175" s="2">
+        <v>162804</v>
+      </c>
+      <c r="G175" s="2">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B176" s="2">
+        <v>175</v>
+      </c>
+      <c r="C176" s="2">
+        <v>5095524</v>
+      </c>
+      <c r="D176" s="2">
+        <v>63246</v>
+      </c>
+      <c r="E176" s="2">
+        <v>2314463</v>
+      </c>
+      <c r="F176" s="2">
+        <v>164094</v>
+      </c>
+      <c r="G176" s="2">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B177" s="2">
+        <v>176</v>
+      </c>
+      <c r="C177" s="2">
+        <v>5151595</v>
+      </c>
+      <c r="D177" s="2">
+        <v>56071</v>
+      </c>
+      <c r="E177" s="2">
+        <v>2348042</v>
+      </c>
+      <c r="F177" s="2">
+        <v>165083</v>
+      </c>
+      <c r="G177" s="2">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B178" s="2">
+        <v>177</v>
+      </c>
+      <c r="C178" s="2">
+        <v>5199444</v>
+      </c>
+      <c r="D178" s="2">
+        <v>47849</v>
+      </c>
+      <c r="E178" s="2">
+        <v>2369126</v>
+      </c>
+      <c r="F178" s="2">
+        <v>165617</v>
+      </c>
+      <c r="G178" s="2">
+        <v>534</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Kato/USA.xlsx
+++ b/Database/Kato/USA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE22939-81B3-4072-8D59-33D27B2B8B94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384D118D-E24A-43BD-96F9-2C6F936BA62E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10608" yWindow="156" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10620" yWindow="348" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G178"/>
+  <dimension ref="A1:G179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="H180" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="G179" sqref="G179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4532,6 +4532,29 @@
         <v>534</v>
       </c>
     </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B179" s="2">
+        <v>178</v>
+      </c>
+      <c r="C179" s="2">
+        <v>5251446</v>
+      </c>
+      <c r="D179" s="2">
+        <v>49800</v>
+      </c>
+      <c r="E179" s="2">
+        <v>2369320</v>
+      </c>
+      <c r="F179" s="2">
+        <v>166192</v>
+      </c>
+      <c r="G179" s="2">
+        <v>569</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/Kato/USA.xlsx
+++ b/Database/Kato/USA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384D118D-E24A-43BD-96F9-2C6F936BA62E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50237053-BAF7-43EB-922C-E77160D77714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="348" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11376" yWindow="720" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G179"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="G179" sqref="G179"/>
+      <selection activeCell="G181" sqref="G181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4555,6 +4555,52 @@
         <v>569</v>
       </c>
     </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B180" s="2">
+        <v>179</v>
+      </c>
+      <c r="C180" s="2">
+        <v>5305957</v>
+      </c>
+      <c r="D180" s="2">
+        <v>54519</v>
+      </c>
+      <c r="E180" s="2">
+        <v>2382864</v>
+      </c>
+      <c r="F180" s="2">
+        <v>167745</v>
+      </c>
+      <c r="G180" s="2">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B181" s="2">
+        <v>180</v>
+      </c>
+      <c r="C181" s="2">
+        <v>5360302</v>
+      </c>
+      <c r="D181" s="2">
+        <v>54345</v>
+      </c>
+      <c r="E181" s="2">
+        <v>2378568</v>
+      </c>
+      <c r="F181" s="2">
+        <v>169131</v>
+      </c>
+      <c r="G181" s="2">
+        <v>1386</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/Kato/USA.xlsx
+++ b/Database/Kato/USA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50237053-BAF7-43EB-922C-E77160D77714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFD5F98-200C-4946-89E4-6EBE7B2DE266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11376" yWindow="720" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11760" yWindow="480" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G181"/>
+  <dimension ref="A1:G185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="G181" sqref="G181"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="G185" sqref="G185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4601,6 +4601,98 @@
         <v>1386</v>
       </c>
     </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B182" s="2">
+        <v>181</v>
+      </c>
+      <c r="C182" s="2">
+        <v>5415666</v>
+      </c>
+      <c r="D182" s="2">
+        <v>55364</v>
+      </c>
+      <c r="E182" s="2">
+        <v>2402210</v>
+      </c>
+      <c r="F182" s="2">
+        <v>170415</v>
+      </c>
+      <c r="G182" s="2">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B183" s="2">
+        <v>182</v>
+      </c>
+      <c r="C183" s="2">
+        <v>5476266</v>
+      </c>
+      <c r="D183" s="2">
+        <v>60600</v>
+      </c>
+      <c r="E183" s="2">
+        <v>2429584</v>
+      </c>
+      <c r="F183" s="2">
+        <v>171535</v>
+      </c>
+      <c r="G183" s="2">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B184" s="2">
+        <v>183</v>
+      </c>
+      <c r="C184" s="2">
+        <v>5529789</v>
+      </c>
+      <c r="D184" s="2">
+        <v>53523</v>
+      </c>
+      <c r="E184" s="2">
+        <v>2452794</v>
+      </c>
+      <c r="F184" s="2">
+        <v>172606</v>
+      </c>
+      <c r="G184" s="2">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B185" s="2">
+        <v>184</v>
+      </c>
+      <c r="C185" s="2">
+        <v>5566632</v>
+      </c>
+      <c r="D185" s="2">
+        <v>36843</v>
+      </c>
+      <c r="E185" s="2">
+        <v>2470780</v>
+      </c>
+      <c r="F185" s="2">
+        <v>173128</v>
+      </c>
+      <c r="G185" s="2">
+        <v>522</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/Kato/USA.xlsx
+++ b/Database/Kato/USA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFD5F98-200C-4946-89E4-6EBE7B2DE266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DF23FC-2883-4AB0-8215-CBA9C6FFC60B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11760" yWindow="480" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12072" yWindow="636" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G185"/>
+  <dimension ref="A1:G187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="G185" sqref="G185"/>
+      <selection activeCell="G187" sqref="G187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4693,6 +4693,52 @@
         <v>522</v>
       </c>
     </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B186" s="2">
+        <v>185</v>
+      </c>
+      <c r="C186" s="2">
+        <v>5611975</v>
+      </c>
+      <c r="D186" s="2">
+        <v>40560</v>
+      </c>
+      <c r="E186" s="2">
+        <v>2464672</v>
+      </c>
+      <c r="F186" s="2">
+        <v>173716</v>
+      </c>
+      <c r="G186" s="2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B187" s="2">
+        <v>186</v>
+      </c>
+      <c r="C187" s="2">
+        <v>5655974</v>
+      </c>
+      <c r="D187" s="2">
+        <v>43999</v>
+      </c>
+      <c r="E187" s="2">
+        <v>2469802</v>
+      </c>
+      <c r="F187" s="2">
+        <v>175074</v>
+      </c>
+      <c r="G187" s="2">
+        <v>1358</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/Kato/USA.xlsx
+++ b/Database/Kato/USA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DF23FC-2883-4AB0-8215-CBA9C6FFC60B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC5762C-D1FD-4806-B5BB-5E16A7592DD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12072" yWindow="636" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12036" yWindow="192" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G187"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="G187" sqref="G187"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="G191" sqref="G191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4739,6 +4739,98 @@
         <v>1358</v>
       </c>
     </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B188" s="2">
+        <v>187</v>
+      </c>
+      <c r="C188" s="2">
+        <v>5701761</v>
+      </c>
+      <c r="D188" s="2">
+        <v>44973</v>
+      </c>
+      <c r="E188" s="2">
+        <v>2462497</v>
+      </c>
+      <c r="F188" s="2">
+        <v>176933</v>
+      </c>
+      <c r="G188" s="2">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B189" s="2">
+        <v>188</v>
+      </c>
+      <c r="C189" s="2">
+        <v>5747118</v>
+      </c>
+      <c r="D189" s="2">
+        <v>45357</v>
+      </c>
+      <c r="E189" s="2">
+        <v>2473604</v>
+      </c>
+      <c r="F189" s="2">
+        <v>178030</v>
+      </c>
+      <c r="G189" s="2">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B190" s="2">
+        <v>189</v>
+      </c>
+      <c r="C190" s="2">
+        <v>5797599</v>
+      </c>
+      <c r="D190" s="2">
+        <v>50481</v>
+      </c>
+      <c r="E190" s="2">
+        <v>2490981</v>
+      </c>
+      <c r="F190" s="2">
+        <v>179200</v>
+      </c>
+      <c r="G190" s="2">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B191" s="2">
+        <v>190</v>
+      </c>
+      <c r="C191" s="2">
+        <v>5841428</v>
+      </c>
+      <c r="D191" s="2">
+        <v>43829</v>
+      </c>
+      <c r="E191" s="2">
+        <v>2513174</v>
+      </c>
+      <c r="F191" s="2">
+        <v>180174</v>
+      </c>
+      <c r="G191" s="2">
+        <v>974</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/Kato/USA.xlsx
+++ b/Database/Kato/USA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC5762C-D1FD-4806-B5BB-5E16A7592DD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7E42B2-78A2-4E53-8448-72FB56ED1F7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12036" yWindow="192" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11556" yWindow="144" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G191"/>
+  <dimension ref="A1:G192"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="G191" sqref="G191"/>
+      <selection activeCell="G192" sqref="G192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4831,6 +4831,29 @@
         <v>974</v>
       </c>
     </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B192" s="2">
+        <v>191</v>
+      </c>
+      <c r="C192" s="2">
+        <v>5874146</v>
+      </c>
+      <c r="D192" s="2">
+        <v>32718</v>
+      </c>
+      <c r="E192" s="2">
+        <v>2526479</v>
+      </c>
+      <c r="F192" s="2">
+        <v>180604</v>
+      </c>
+      <c r="G192" s="2">
+        <v>430</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/Kato/USA.xlsx
+++ b/Database/Kato/USA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7E42B2-78A2-4E53-8448-72FB56ED1F7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170A93CA-A14C-47D4-BA62-EF7A63792F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11556" yWindow="144" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11220" yWindow="252" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G192"/>
+  <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="G192" sqref="G192"/>
+      <selection activeCell="G193" sqref="G193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4854,6 +4854,29 @@
         <v>430</v>
       </c>
     </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B193" s="2">
+        <v>192</v>
+      </c>
+      <c r="C193" s="2">
+        <v>5915630</v>
+      </c>
+      <c r="D193" s="2">
+        <v>41484</v>
+      </c>
+      <c r="E193" s="2">
+        <v>2516535</v>
+      </c>
+      <c r="F193" s="2">
+        <v>181114</v>
+      </c>
+      <c r="G193" s="2">
+        <v>510</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/Kato/USA.xlsx
+++ b/Database/Kato/USA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170A93CA-A14C-47D4-BA62-EF7A63792F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B612BF4-412E-4911-8D5D-8FB869E3D732}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="252" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2544" yWindow="576" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="G193" sqref="G193"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="G196" sqref="G196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4877,6 +4877,75 @@
         <v>510</v>
       </c>
     </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B194" s="2">
+        <v>193</v>
+      </c>
+      <c r="C194" s="2">
+        <v>5955728</v>
+      </c>
+      <c r="D194" s="2">
+        <v>40098</v>
+      </c>
+      <c r="E194" s="2">
+        <v>2519082</v>
+      </c>
+      <c r="F194" s="2">
+        <v>182364</v>
+      </c>
+      <c r="G194" s="2">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B195" s="2">
+        <v>194</v>
+      </c>
+      <c r="C195" s="2">
+        <v>6000348</v>
+      </c>
+      <c r="D195" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E195" s="2">
+        <v>2502834</v>
+      </c>
+      <c r="F195" s="2">
+        <v>193653</v>
+      </c>
+      <c r="G195" s="2">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B196" s="2">
+        <v>195</v>
+      </c>
+      <c r="C196" s="2">
+        <v>6046634</v>
+      </c>
+      <c r="D196" s="2">
+        <v>46286</v>
+      </c>
+      <c r="E196" s="2">
+        <v>2513898</v>
+      </c>
+      <c r="F196" s="2">
+        <v>184796</v>
+      </c>
+      <c r="G196" s="2">
+        <v>1143</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/Kato/USA.xlsx
+++ b/Database/Kato/USA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B612BF4-412E-4911-8D5D-8FB869E3D732}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80BB8A9-BA43-4145-A372-6D8A2A311E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2544" yWindow="576" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="612" windowWidth="12756" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G196"/>
+  <dimension ref="A1:G199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="G196" sqref="G196"/>
+      <selection activeCell="G199" sqref="G199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4946,6 +4946,75 @@
         <v>1143</v>
       </c>
     </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B197" s="2">
+        <v>196</v>
+      </c>
+      <c r="C197" s="2">
+        <v>6096595</v>
+      </c>
+      <c r="D197" s="2">
+        <v>49657</v>
+      </c>
+      <c r="E197" s="2">
+        <v>2535856</v>
+      </c>
+      <c r="F197" s="2">
+        <v>185901</v>
+      </c>
+      <c r="G197" s="2">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>44072</v>
+      </c>
+      <c r="B198" s="2">
+        <v>197</v>
+      </c>
+      <c r="C198" s="2">
+        <v>6139255</v>
+      </c>
+      <c r="D198" s="2">
+        <v>42660</v>
+      </c>
+      <c r="E198" s="2">
+        <v>2543601</v>
+      </c>
+      <c r="F198" s="2">
+        <v>186855</v>
+      </c>
+      <c r="G198" s="2">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B199" s="2">
+        <v>198</v>
+      </c>
+      <c r="C199" s="2">
+        <v>6173236</v>
+      </c>
+      <c r="D199" s="2">
+        <v>33981</v>
+      </c>
+      <c r="E199" s="2">
+        <v>2560289</v>
+      </c>
+      <c r="F199" s="2">
+        <v>187224</v>
+      </c>
+      <c r="G199" s="2">
+        <v>369</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/Kato/USA.xlsx
+++ b/Database/Kato/USA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80BB8A9-BA43-4145-A372-6D8A2A311E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC25796F-CC4C-4A4B-A6EE-22124CA7811E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="612" windowWidth="12756" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5940" yWindow="156" windowWidth="10152" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G199"/>
+  <dimension ref="A1:G207"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="G199" sqref="G199"/>
+      <selection activeCell="G207" sqref="G207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5015,6 +5015,190 @@
         <v>369</v>
       </c>
     </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B200" s="2">
+        <v>199</v>
+      </c>
+      <c r="C200" s="2">
+        <v>6205551</v>
+      </c>
+      <c r="D200" s="2">
+        <v>38566</v>
+      </c>
+      <c r="E200" s="2">
+        <v>2561578</v>
+      </c>
+      <c r="F200" s="2">
+        <v>187710</v>
+      </c>
+      <c r="G200" s="2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B201" s="2">
+        <v>200</v>
+      </c>
+      <c r="C201" s="2">
+        <v>6247527</v>
+      </c>
+      <c r="D201" s="2">
+        <v>41976</v>
+      </c>
+      <c r="E201" s="2">
+        <v>2561740</v>
+      </c>
+      <c r="F201" s="2">
+        <v>188874</v>
+      </c>
+      <c r="G201" s="2">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B202" s="2">
+        <v>201</v>
+      </c>
+      <c r="C202" s="2">
+        <v>6288735</v>
+      </c>
+      <c r="D202" s="2">
+        <v>41208</v>
+      </c>
+      <c r="E202" s="2">
+        <v>2551739</v>
+      </c>
+      <c r="F202" s="2">
+        <v>189964</v>
+      </c>
+      <c r="G202" s="2">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B203" s="2">
+        <v>202</v>
+      </c>
+      <c r="C203" s="2">
+        <v>6334199</v>
+      </c>
+      <c r="D203" s="2">
+        <v>45464</v>
+      </c>
+      <c r="E203" s="2">
+        <v>2547132</v>
+      </c>
+      <c r="F203" s="2">
+        <v>191078</v>
+      </c>
+      <c r="G203" s="2">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B204" s="2">
+        <v>203</v>
+      </c>
+      <c r="C204" s="2">
+        <v>6387048</v>
+      </c>
+      <c r="D204" s="2">
+        <v>52849</v>
+      </c>
+      <c r="E204" s="2">
+        <v>2518368</v>
+      </c>
+      <c r="F204" s="2">
+        <v>192111</v>
+      </c>
+      <c r="G204" s="2">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B205" s="2">
+        <v>204</v>
+      </c>
+      <c r="C205" s="2">
+        <v>6429140</v>
+      </c>
+      <c r="D205" s="2">
+        <v>42092</v>
+      </c>
+      <c r="E205" s="2">
+        <v>2529322</v>
+      </c>
+      <c r="F205" s="2">
+        <v>192818</v>
+      </c>
+      <c r="G205" s="2">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B206" s="2">
+        <v>205</v>
+      </c>
+      <c r="C206" s="2">
+        <v>6460250</v>
+      </c>
+      <c r="D206" s="2">
+        <v>31110</v>
+      </c>
+      <c r="E206" s="2">
+        <v>2541032</v>
+      </c>
+      <c r="F206" s="2">
+        <v>193248</v>
+      </c>
+      <c r="G206" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B207" s="2">
+        <v>206</v>
+      </c>
+      <c r="C207" s="2">
+        <v>6485575</v>
+      </c>
+      <c r="D207" s="2">
+        <v>25325</v>
+      </c>
+      <c r="E207" s="2">
+        <v>2533412</v>
+      </c>
+      <c r="F207" s="2">
+        <v>193534</v>
+      </c>
+      <c r="G207" s="2">
+        <v>286</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/Kato/USA.xlsx
+++ b/Database/Kato/USA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC25796F-CC4C-4A4B-A6EE-22124CA7811E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EACE31-05D4-4ED6-9350-ADCAC1206E95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="156" windowWidth="10152" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12804" yWindow="516" windowWidth="10152" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,9 +420,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G207"/>
+  <dimension ref="A1:G226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
       <selection activeCell="G207" sqref="G207"/>
     </sheetView>
   </sheetViews>
@@ -5138,7 +5138,7 @@
         <v>204</v>
       </c>
       <c r="C205" s="2">
-        <v>6429140</v>
+        <v>6458717</v>
       </c>
       <c r="D205" s="2">
         <v>42092</v>
@@ -5161,7 +5161,7 @@
         <v>205</v>
       </c>
       <c r="C206" s="2">
-        <v>6460250</v>
+        <v>6491226</v>
       </c>
       <c r="D206" s="2">
         <v>31110</v>
@@ -5184,7 +5184,7 @@
         <v>206</v>
       </c>
       <c r="C207" s="2">
-        <v>6485575</v>
+        <v>6516987</v>
       </c>
       <c r="D207" s="2">
         <v>25325</v>
@@ -5196,7 +5196,444 @@
         <v>193534</v>
       </c>
       <c r="G207" s="2">
-        <v>286</v>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B208" s="2">
+        <v>207</v>
+      </c>
+      <c r="C208" s="2">
+        <v>6545504</v>
+      </c>
+      <c r="D208" s="2">
+        <v>28517</v>
+      </c>
+      <c r="E208" s="2">
+        <v>2554590</v>
+      </c>
+      <c r="F208" s="2">
+        <v>194154</v>
+      </c>
+      <c r="G208" s="2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B209" s="2">
+        <v>208</v>
+      </c>
+      <c r="C209" s="2">
+        <v>6580900</v>
+      </c>
+      <c r="D209" s="2">
+        <v>35396</v>
+      </c>
+      <c r="E209" s="2">
+        <v>2539440</v>
+      </c>
+      <c r="F209" s="2">
+        <v>195365</v>
+      </c>
+      <c r="G209" s="2">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B210" s="2">
+        <v>209</v>
+      </c>
+      <c r="C210" s="2">
+        <v>6620880</v>
+      </c>
+      <c r="D210" s="2">
+        <v>39980</v>
+      </c>
+      <c r="E210" s="2">
+        <v>2544463</v>
+      </c>
+      <c r="F210" s="2">
+        <v>196457</v>
+      </c>
+      <c r="G210" s="2">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B211" s="2">
+        <v>210</v>
+      </c>
+      <c r="C211" s="2">
+        <v>6667723</v>
+      </c>
+      <c r="D211" s="2">
+        <v>46843</v>
+      </c>
+      <c r="E211" s="2">
+        <v>2552207</v>
+      </c>
+      <c r="F211" s="2">
+        <v>197554</v>
+      </c>
+      <c r="G211" s="2">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B212" s="2">
+        <v>211</v>
+      </c>
+      <c r="C212" s="2">
+        <v>6707236</v>
+      </c>
+      <c r="D212" s="2">
+        <v>39513</v>
+      </c>
+      <c r="E212" s="2">
+        <v>2558618</v>
+      </c>
+      <c r="F212" s="2">
+        <v>198264</v>
+      </c>
+      <c r="G212" s="2">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B213" s="2">
+        <v>212</v>
+      </c>
+      <c r="C213" s="2">
+        <v>6740521</v>
+      </c>
+      <c r="D213" s="2">
+        <v>33285</v>
+      </c>
+      <c r="E213" s="2">
+        <v>2566913</v>
+      </c>
+      <c r="F213" s="2">
+        <v>198659</v>
+      </c>
+      <c r="G213" s="2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B214" s="2">
+        <v>213</v>
+      </c>
+      <c r="C214" s="2">
+        <v>6778689</v>
+      </c>
+      <c r="D214" s="2">
+        <v>38168</v>
+      </c>
+      <c r="E214" s="2">
+        <v>2551722</v>
+      </c>
+      <c r="F214" s="2">
+        <v>199141</v>
+      </c>
+      <c r="G214" s="2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B215" s="2">
+        <v>214</v>
+      </c>
+      <c r="C215" s="2">
+        <v>6815369</v>
+      </c>
+      <c r="D215" s="2">
+        <v>36680</v>
+      </c>
+      <c r="E215" s="2">
+        <v>2546945</v>
+      </c>
+      <c r="F215" s="2">
+        <v>200338</v>
+      </c>
+      <c r="G215" s="2">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B216" s="2">
+        <v>215</v>
+      </c>
+      <c r="C216" s="2">
+        <v>6855776</v>
+      </c>
+      <c r="D216" s="2">
+        <v>40407</v>
+      </c>
+      <c r="E216" s="2">
+        <v>2535267</v>
+      </c>
+      <c r="F216" s="2">
+        <v>201351</v>
+      </c>
+      <c r="G216" s="2">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>44091</v>
+      </c>
+      <c r="B217" s="2">
+        <v>216</v>
+      </c>
+      <c r="C217" s="2">
+        <v>6902299</v>
+      </c>
+      <c r="D217" s="2">
+        <v>46523</v>
+      </c>
+      <c r="E217" s="2">
+        <v>2545029</v>
+      </c>
+      <c r="F217" s="2">
+        <v>202231</v>
+      </c>
+      <c r="G217" s="2">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>44092</v>
+      </c>
+      <c r="B218" s="2">
+        <v>217</v>
+      </c>
+      <c r="C218" s="2">
+        <v>6953863</v>
+      </c>
+      <c r="D218" s="2">
+        <v>51564</v>
+      </c>
+      <c r="E218" s="2">
+        <v>2558783</v>
+      </c>
+      <c r="F218" s="2">
+        <v>203186</v>
+      </c>
+      <c r="G218" s="2">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B219" s="2">
+        <v>218</v>
+      </c>
+      <c r="C219" s="2">
+        <v>6997615</v>
+      </c>
+      <c r="D219" s="2">
+        <v>43752</v>
+      </c>
+      <c r="E219" s="2">
+        <v>2568728</v>
+      </c>
+      <c r="F219" s="2">
+        <v>203845</v>
+      </c>
+      <c r="G219" s="2">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>44094</v>
+      </c>
+      <c r="B220" s="2">
+        <v>219</v>
+      </c>
+      <c r="C220" s="2">
+        <v>7031111</v>
+      </c>
+      <c r="D220" s="2">
+        <v>33496</v>
+      </c>
+      <c r="E220" s="2">
+        <v>2575482</v>
+      </c>
+      <c r="F220" s="2">
+        <v>204140</v>
+      </c>
+      <c r="G220" s="2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>44095</v>
+      </c>
+      <c r="B221" s="2">
+        <v>220</v>
+      </c>
+      <c r="C221" s="2">
+        <v>7067657</v>
+      </c>
+      <c r="D221" s="2">
+        <v>36546</v>
+      </c>
+      <c r="E221" s="2">
+        <v>2563607</v>
+      </c>
+      <c r="F221" s="2">
+        <v>204525</v>
+      </c>
+      <c r="G221" s="2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>44096</v>
+      </c>
+      <c r="B222" s="2">
+        <v>221</v>
+      </c>
+      <c r="C222" s="2">
+        <v>7103482</v>
+      </c>
+      <c r="D222" s="2">
+        <v>35825</v>
+      </c>
+      <c r="E222" s="2">
+        <v>2551868</v>
+      </c>
+      <c r="F222" s="2">
+        <v>205504</v>
+      </c>
+      <c r="G222" s="2">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>44097</v>
+      </c>
+      <c r="B223" s="2">
+        <v>222</v>
+      </c>
+      <c r="C223" s="2">
+        <v>7145224</v>
+      </c>
+      <c r="D223" s="2">
+        <v>41742</v>
+      </c>
+      <c r="E223" s="2">
+        <v>2539697</v>
+      </c>
+      <c r="F223" s="2">
+        <v>206620</v>
+      </c>
+      <c r="G223" s="2">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B224" s="2">
+        <v>223</v>
+      </c>
+      <c r="C224" s="2">
+        <v>7190726</v>
+      </c>
+      <c r="D224" s="2">
+        <v>45502</v>
+      </c>
+      <c r="E224" s="2">
+        <v>2545606</v>
+      </c>
+      <c r="F224" s="2">
+        <v>207545</v>
+      </c>
+      <c r="G224" s="2">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>44099</v>
+      </c>
+      <c r="B225" s="2">
+        <v>224</v>
+      </c>
+      <c r="C225" s="2">
+        <v>7244355</v>
+      </c>
+      <c r="D225" s="2">
+        <v>53629</v>
+      </c>
+      <c r="E225" s="2">
+        <v>2555196</v>
+      </c>
+      <c r="F225" s="2">
+        <v>208440</v>
+      </c>
+      <c r="G225" s="2">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B226" s="2">
+        <v>225</v>
+      </c>
+      <c r="C226" s="2">
+        <v>7287561</v>
+      </c>
+      <c r="D226" s="2">
+        <v>43206</v>
+      </c>
+      <c r="E226" s="2">
+        <v>2554276</v>
+      </c>
+      <c r="F226" s="2">
+        <v>209177</v>
+      </c>
+      <c r="G226" s="2">
+        <v>737</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Kato/USA.xlsx
+++ b/Database/Kato/USA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EACE31-05D4-4ED6-9350-ADCAC1206E95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185234E1-9B0D-4271-B8C4-FB205B700BEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12804" yWindow="516" windowWidth="10152" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11580" yWindow="516" windowWidth="11460" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G226"/>
+  <dimension ref="A1:G261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="G207" sqref="G207"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="G262" sqref="G262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5636,6 +5636,811 @@
         <v>737</v>
       </c>
     </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>44101</v>
+      </c>
+      <c r="B227" s="2">
+        <v>226</v>
+      </c>
+      <c r="C227" s="2">
+        <v>7310901</v>
+      </c>
+      <c r="D227" s="2">
+        <v>34048</v>
+      </c>
+      <c r="E227" s="2">
+        <v>2574989</v>
+      </c>
+      <c r="F227" s="2">
+        <v>209465</v>
+      </c>
+      <c r="G227" s="2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B228" s="2">
+        <v>227</v>
+      </c>
+      <c r="C228" s="2">
+        <v>7344949</v>
+      </c>
+      <c r="D228" s="2">
+        <v>37343</v>
+      </c>
+      <c r="E228" s="2">
+        <v>2562795</v>
+      </c>
+      <c r="F228" s="2">
+        <v>209817</v>
+      </c>
+      <c r="G228" s="2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>44103</v>
+      </c>
+      <c r="B229" s="2">
+        <v>228</v>
+      </c>
+      <c r="C229" s="2">
+        <v>7382292</v>
+      </c>
+      <c r="D229" s="2">
+        <v>44390</v>
+      </c>
+      <c r="E229" s="2">
+        <v>2567193</v>
+      </c>
+      <c r="F229" s="2">
+        <v>210793</v>
+      </c>
+      <c r="G229" s="2">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B230" s="2">
+        <v>229</v>
+      </c>
+      <c r="C230" s="2">
+        <v>7426682</v>
+      </c>
+      <c r="D230" s="2">
+        <v>41070</v>
+      </c>
+      <c r="E230" s="2">
+        <v>2556272</v>
+      </c>
+      <c r="F230" s="2">
+        <v>211749</v>
+      </c>
+      <c r="G230" s="2">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B231" s="2">
+        <v>230</v>
+      </c>
+      <c r="C231" s="2">
+        <v>7467752</v>
+      </c>
+      <c r="D231" s="2">
+        <v>47626</v>
+      </c>
+      <c r="E231" s="2">
+        <v>2566079</v>
+      </c>
+      <c r="F231" s="2">
+        <v>212667</v>
+      </c>
+      <c r="G231" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B232" s="2">
+        <v>231</v>
+      </c>
+      <c r="C232" s="2">
+        <v>7515378</v>
+      </c>
+      <c r="D232" s="2">
+        <v>52250</v>
+      </c>
+      <c r="E232" s="2">
+        <v>2557253</v>
+      </c>
+      <c r="F232" s="2">
+        <v>213531</v>
+      </c>
+      <c r="G232" s="2">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B233" s="2">
+        <v>232</v>
+      </c>
+      <c r="C233" s="2">
+        <v>7567628</v>
+      </c>
+      <c r="D233" s="2">
+        <v>50560</v>
+      </c>
+      <c r="E233" s="2">
+        <v>2585299</v>
+      </c>
+      <c r="F233" s="2">
+        <v>214292</v>
+      </c>
+      <c r="G233" s="2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B234" s="2">
+        <v>233</v>
+      </c>
+      <c r="C234" s="2">
+        <v>7618188</v>
+      </c>
+      <c r="D234" s="2">
+        <v>34159</v>
+      </c>
+      <c r="E234" s="2">
+        <v>2588639</v>
+      </c>
+      <c r="F234" s="2">
+        <v>214628</v>
+      </c>
+      <c r="G234" s="2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B235" s="2">
+        <v>234</v>
+      </c>
+      <c r="C235" s="2">
+        <v>7652347</v>
+      </c>
+      <c r="D235" s="2">
+        <v>41376</v>
+      </c>
+      <c r="E235" s="2">
+        <v>2583576</v>
+      </c>
+      <c r="F235" s="2">
+        <v>215053</v>
+      </c>
+      <c r="G235" s="2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B236" s="2">
+        <v>235</v>
+      </c>
+      <c r="C236" s="2">
+        <v>7693723</v>
+      </c>
+      <c r="D236" s="2">
+        <v>44694</v>
+      </c>
+      <c r="E236" s="2">
+        <v>2586997</v>
+      </c>
+      <c r="F236" s="2">
+        <v>215861</v>
+      </c>
+      <c r="G236" s="2">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B237" s="2">
+        <v>236</v>
+      </c>
+      <c r="C237" s="2">
+        <v>7738417</v>
+      </c>
+      <c r="D237" s="2">
+        <v>49429</v>
+      </c>
+      <c r="E237" s="2">
+        <v>2587424</v>
+      </c>
+      <c r="F237" s="2">
+        <v>216790</v>
+      </c>
+      <c r="G237" s="2">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B238" s="2">
+        <v>237</v>
+      </c>
+      <c r="C238" s="2">
+        <v>7787846</v>
+      </c>
+      <c r="D238" s="2">
+        <v>57329</v>
+      </c>
+      <c r="E238" s="2">
+        <v>2602217</v>
+      </c>
+      <c r="F238" s="2">
+        <v>217748</v>
+      </c>
+      <c r="G238" s="2">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B239" s="2">
+        <v>238</v>
+      </c>
+      <c r="C239" s="2">
+        <v>7845175</v>
+      </c>
+      <c r="D239" s="2">
+        <v>61063</v>
+      </c>
+      <c r="E239" s="2">
+        <v>2623266</v>
+      </c>
+      <c r="F239" s="2">
+        <v>218657</v>
+      </c>
+      <c r="G239" s="2">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B240" s="2">
+        <v>239</v>
+      </c>
+      <c r="C240" s="2">
+        <v>7960709</v>
+      </c>
+      <c r="D240" s="2">
+        <v>54471</v>
+      </c>
+      <c r="E240" s="2">
+        <v>2651457</v>
+      </c>
+      <c r="F240" s="2">
+        <v>219383</v>
+      </c>
+      <c r="G240" s="2">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B241" s="2">
+        <v>240</v>
+      </c>
+      <c r="C241" s="2">
+        <v>8002876</v>
+      </c>
+      <c r="D241" s="2">
+        <v>42167</v>
+      </c>
+      <c r="E241" s="2">
+        <v>2654967</v>
+      </c>
+      <c r="F241" s="2">
+        <v>219710</v>
+      </c>
+      <c r="G241" s="2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B242" s="2">
+        <v>241</v>
+      </c>
+      <c r="C242" s="2">
+        <v>8048946</v>
+      </c>
+      <c r="D242" s="2">
+        <v>46070</v>
+      </c>
+      <c r="E242" s="2">
+        <v>2644241</v>
+      </c>
+      <c r="F242" s="2">
+        <v>220044</v>
+      </c>
+      <c r="G242" s="2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B243" s="2">
+        <v>242</v>
+      </c>
+      <c r="C243" s="2">
+        <v>8100570</v>
+      </c>
+      <c r="D243" s="2">
+        <v>51624</v>
+      </c>
+      <c r="E243" s="2">
+        <v>2653234</v>
+      </c>
+      <c r="F243" s="2">
+        <v>220889</v>
+      </c>
+      <c r="G243" s="2">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B244" s="2">
+        <v>243</v>
+      </c>
+      <c r="C244" s="2">
+        <v>8160314</v>
+      </c>
+      <c r="D244" s="2">
+        <v>59744</v>
+      </c>
+      <c r="E244" s="2">
+        <v>2659688</v>
+      </c>
+      <c r="F244" s="2">
+        <v>221858</v>
+      </c>
+      <c r="G244" s="2">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B245" s="2">
+        <v>244</v>
+      </c>
+      <c r="C245" s="2">
+        <v>8226538</v>
+      </c>
+      <c r="D245" s="2">
+        <v>66224</v>
+      </c>
+      <c r="E245" s="2">
+        <v>2683658</v>
+      </c>
+      <c r="F245" s="2">
+        <v>222731</v>
+      </c>
+      <c r="G245" s="2">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B246" s="2">
+        <v>245</v>
+      </c>
+      <c r="C246" s="2">
+        <v>8298288</v>
+      </c>
+      <c r="D246" s="2">
+        <v>71750</v>
+      </c>
+      <c r="E246" s="2">
+        <v>2679211</v>
+      </c>
+      <c r="F246" s="2">
+        <v>223658</v>
+      </c>
+      <c r="G246" s="2">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B247" s="2">
+        <v>246</v>
+      </c>
+      <c r="C247" s="2">
+        <v>8356737</v>
+      </c>
+      <c r="D247" s="2">
+        <v>58750</v>
+      </c>
+      <c r="E247" s="2">
+        <v>2700196</v>
+      </c>
+      <c r="F247" s="2">
+        <v>224313</v>
+      </c>
+      <c r="G247" s="2">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B248" s="2">
+        <v>247</v>
+      </c>
+      <c r="C248" s="2">
+        <v>8408357</v>
+      </c>
+      <c r="D248" s="2">
+        <v>51620</v>
+      </c>
+      <c r="E248" s="2">
+        <v>2725834</v>
+      </c>
+      <c r="F248" s="2">
+        <v>224792</v>
+      </c>
+      <c r="G248" s="2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B249" s="2">
+        <v>248</v>
+      </c>
+      <c r="C249" s="2">
+        <v>8467347</v>
+      </c>
+      <c r="D249" s="2">
+        <v>58990</v>
+      </c>
+      <c r="E249" s="2">
+        <v>2738822</v>
+      </c>
+      <c r="F249" s="2">
+        <v>225244</v>
+      </c>
+      <c r="G249" s="2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B250" s="2">
+        <v>249</v>
+      </c>
+      <c r="C250" s="2">
+        <v>8530224</v>
+      </c>
+      <c r="D250" s="2">
+        <v>62877</v>
+      </c>
+      <c r="E250" s="2">
+        <v>2758390</v>
+      </c>
+      <c r="F250" s="2">
+        <v>226192</v>
+      </c>
+      <c r="G250" s="2">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B251" s="2">
+        <v>250</v>
+      </c>
+      <c r="C251" s="2">
+        <v>8594583</v>
+      </c>
+      <c r="D251" s="2">
+        <v>64359</v>
+      </c>
+      <c r="E251" s="2">
+        <v>2765036</v>
+      </c>
+      <c r="F251" s="2">
+        <v>227413</v>
+      </c>
+      <c r="G251" s="2">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B252" s="2">
+        <v>251</v>
+      </c>
+      <c r="C252" s="2">
+        <v>8669266</v>
+      </c>
+      <c r="D252" s="2">
+        <v>74683</v>
+      </c>
+      <c r="E252" s="2">
+        <v>2785554</v>
+      </c>
+      <c r="F252" s="2">
+        <v>228385</v>
+      </c>
+      <c r="G252" s="2">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B253" s="2">
+        <v>252</v>
+      </c>
+      <c r="C253" s="2">
+        <v>8750698</v>
+      </c>
+      <c r="D253" s="2">
+        <v>81432</v>
+      </c>
+      <c r="E253" s="2">
+        <v>2823226</v>
+      </c>
+      <c r="F253" s="2">
+        <v>229287</v>
+      </c>
+      <c r="G253" s="2">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>44128</v>
+      </c>
+      <c r="B254" s="2">
+        <v>253</v>
+      </c>
+      <c r="C254" s="2">
+        <v>8831174</v>
+      </c>
+      <c r="D254" s="2">
+        <v>80476</v>
+      </c>
+      <c r="E254" s="2">
+        <v>2859444</v>
+      </c>
+      <c r="F254" s="2">
+        <v>230074</v>
+      </c>
+      <c r="G254" s="2">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B255" s="2">
+        <v>254</v>
+      </c>
+      <c r="C255" s="2">
+        <v>8894911</v>
+      </c>
+      <c r="D255" s="2">
+        <v>63737</v>
+      </c>
+      <c r="E255" s="2">
+        <v>2891818</v>
+      </c>
+      <c r="F255" s="2">
+        <v>230516</v>
+      </c>
+      <c r="G255" s="2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B256" s="2">
+        <v>255</v>
+      </c>
+      <c r="C256" s="2">
+        <v>8964985</v>
+      </c>
+      <c r="D256" s="2">
+        <v>70074</v>
+      </c>
+      <c r="E256" s="2">
+        <v>2900116</v>
+      </c>
+      <c r="F256" s="2">
+        <v>231045</v>
+      </c>
+      <c r="G256" s="2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B257" s="2">
+        <v>256</v>
+      </c>
+      <c r="C257" s="2">
+        <v>9041191</v>
+      </c>
+      <c r="D257" s="2">
+        <v>76206</v>
+      </c>
+      <c r="E257" s="2">
+        <v>2930732</v>
+      </c>
+      <c r="F257" s="2">
+        <v>232100</v>
+      </c>
+      <c r="G257" s="2">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B258" s="2">
+        <v>257</v>
+      </c>
+      <c r="C258" s="2">
+        <v>9123002</v>
+      </c>
+      <c r="D258" s="2">
+        <v>81811</v>
+      </c>
+      <c r="E258" s="2">
+        <v>2956660</v>
+      </c>
+      <c r="F258" s="2">
+        <v>233130</v>
+      </c>
+      <c r="G258" s="2">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B259" s="2">
+        <v>258</v>
+      </c>
+      <c r="C259" s="2">
+        <v>9214836</v>
+      </c>
+      <c r="D259" s="2">
+        <v>91834</v>
+      </c>
+      <c r="E259" s="2">
+        <v>2997320</v>
+      </c>
+      <c r="F259" s="2">
+        <v>234171</v>
+      </c>
+      <c r="G259" s="2">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B260" s="2">
+        <v>259</v>
+      </c>
+      <c r="C260" s="2">
+        <v>9316297</v>
+      </c>
+      <c r="D260" s="2">
+        <v>101461</v>
+      </c>
+      <c r="E260" s="2">
+        <v>3056627</v>
+      </c>
+      <c r="F260" s="2">
+        <v>235158</v>
+      </c>
+      <c r="G260" s="2">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B261" s="2">
+        <v>260</v>
+      </c>
+      <c r="C261" s="2">
+        <v>9402590</v>
+      </c>
+      <c r="D261" s="2">
+        <v>86293</v>
+      </c>
+      <c r="E261" s="2">
+        <v>3104080</v>
+      </c>
+      <c r="F261" s="2">
+        <v>236072</v>
+      </c>
+      <c r="G261" s="2">
+        <v>914</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
